--- a/RNN_python/schd_sam_output_data/anom_data11.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data11.xlsx
@@ -429,7 +429,7 @@
         <v>43329</v>
       </c>
       <c r="D2" t="n">
-        <v>5.547566112895211</v>
+        <v>4.308732293739482</v>
       </c>
     </row>
     <row r="3">
@@ -439,7 +439,7 @@
         <v>43329.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>3.769066062778023</v>
+        <v>4.816564916201827</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +449,7 @@
         <v>43329.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3.722365639484394</v>
+        <v>7.371530896761087</v>
       </c>
     </row>
     <row r="5">
@@ -459,7 +459,7 @@
         <v>43329.125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8587538652233917</v>
+        <v>8.395577940641374</v>
       </c>
     </row>
     <row r="6">
@@ -469,7 +469,7 @@
         <v>43329.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.646019499057914</v>
+        <v>7.396585516021858</v>
       </c>
     </row>
     <row r="7">
@@ -479,7 +479,7 @@
         <v>43329.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2826040273494783</v>
+        <v>5.4456764203033</v>
       </c>
     </row>
     <row r="8">
@@ -489,7 +489,7 @@
         <v>43329.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11.11870378674429</v>
+        <v>13.28849090497451</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>43329.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>37.15907954556251</v>
+        <v>38.54591868479608</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>43329.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>456.0794703864954</v>
+        <v>448.9963687976401</v>
       </c>
     </row>
     <row r="11">
@@ -519,7 +519,7 @@
         <v>43329.375</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9943629903645</v>
+        <v>350.0838789130966</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>43329.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>343.519566244503</v>
+        <v>333.3861098958631</v>
       </c>
     </row>
     <row r="13">
@@ -539,7 +539,7 @@
         <v>43329.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>215.5277795668957</v>
+        <v>211.6633106337084</v>
       </c>
     </row>
     <row r="14">
@@ -549,7 +549,7 @@
         <v>43329.5</v>
       </c>
       <c r="D14" t="n">
-        <v>215.458781161506</v>
+        <v>211.383261719145</v>
       </c>
     </row>
     <row r="15">
@@ -559,7 +559,7 @@
         <v>43329.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>167.1235722582263</v>
+        <v>173.1797180411733</v>
       </c>
     </row>
     <row r="16">
@@ -569,7 +569,7 @@
         <v>43329.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>131.3860578588097</v>
+        <v>130.6902836855056</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>43329.625</v>
       </c>
       <c r="D17" t="n">
-        <v>97.32224221996039</v>
+        <v>91.82812483587668</v>
       </c>
     </row>
     <row r="18">
@@ -589,7 +589,7 @@
         <v>43329.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>70.57217244562416</v>
+        <v>63.12048327055318</v>
       </c>
     </row>
     <row r="19">
@@ -599,7 +599,7 @@
         <v>43329.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>48.93092085479583</v>
+        <v>43.51847765120864</v>
       </c>
     </row>
     <row r="20">
@@ -609,7 +609,7 @@
         <v>43329.75</v>
       </c>
       <c r="D20" t="n">
-        <v>32.79669830504471</v>
+        <v>30.18026301346767</v>
       </c>
     </row>
     <row r="21">
@@ -619,7 +619,7 @@
         <v>43329.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>21.48708751085968</v>
+        <v>20.98463147272322</v>
       </c>
     </row>
     <row r="22">
@@ -629,7 +629,7 @@
         <v>43329.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>14.1379372167588</v>
+        <v>14.58297200198088</v>
       </c>
     </row>
     <row r="23">
@@ -639,7 +639,7 @@
         <v>43329.875</v>
       </c>
       <c r="D23" t="n">
-        <v>9.762642953299135</v>
+        <v>10.12773570025972</v>
       </c>
     </row>
     <row r="24">
@@ -649,7 +649,7 @@
         <v>43329.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>7.446546446565833</v>
+        <v>7.077086166843429</v>
       </c>
     </row>
     <row r="25">
@@ -659,7 +659,7 @@
         <v>43329.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>4.952004187207564</v>
+        <v>7.263588758406001</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data11.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data11.xlsx
@@ -426,240 +426,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43329</v>
+        <v>43448</v>
       </c>
       <c r="D2" t="n">
-        <v>4.308732293739482</v>
+        <v>24.42937899174747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43329.04166666666</v>
+        <v>43448.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4.816564916201827</v>
+        <v>11.76286645327177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43329.08333333334</v>
+        <v>43448.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7.371530896761087</v>
+        <v>4.406415327010961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43329.125</v>
+        <v>43448.125</v>
       </c>
       <c r="D5" t="n">
-        <v>8.395577940641374</v>
+        <v>-0.5427944269420948</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43329.16666666666</v>
+        <v>43448.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>7.396585516021858</v>
+        <v>-1.868583637637613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43329.20833333334</v>
+        <v>43448.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>5.4456764203033</v>
+        <v>0.04383825005237441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43329.25</v>
+        <v>43448.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13.28849090497451</v>
+        <v>-7.393749558443673</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43329.29166666666</v>
+        <v>43448.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>38.54591868479608</v>
+        <v>7.367660490903305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43329.33333333334</v>
+        <v>43448.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>448.9963687976401</v>
+        <v>40.5382749022646</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43329.375</v>
+        <v>43448.375</v>
       </c>
       <c r="D11" t="n">
-        <v>350.0838789130966</v>
+        <v>242.3010296369048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43329.41666666666</v>
+        <v>43448.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>333.3861098958631</v>
+        <v>368.5238949735713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43329.45833333334</v>
+        <v>43448.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>211.6633106337084</v>
+        <v>331.9526922111565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43329.5</v>
+        <v>43448.5</v>
       </c>
       <c r="D14" t="n">
-        <v>211.383261719145</v>
+        <v>267.7299035631352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43329.54166666666</v>
+        <v>43448.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>173.1797180411733</v>
+        <v>247.8801454978044</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43329.58333333334</v>
+        <v>43448.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>130.6902836855056</v>
+        <v>200.2313042806387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43329.625</v>
+        <v>43448.625</v>
       </c>
       <c r="D17" t="n">
-        <v>91.82812483587668</v>
+        <v>155.3203725769736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43329.66666666666</v>
+        <v>43448.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>63.12048327055318</v>
+        <v>112.0551957430059</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43329.70833333334</v>
+        <v>43448.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>43.51847765120864</v>
+        <v>79.9188083161004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43329.75</v>
+        <v>43448.75</v>
       </c>
       <c r="D20" t="n">
-        <v>30.18026301346767</v>
+        <v>58.14585395829054</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43329.79166666666</v>
+        <v>43448.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>20.98463147272322</v>
+        <v>43.03740138954732</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43329.83333333334</v>
+        <v>43448.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>14.58297200198088</v>
+        <v>32.70689488550437</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43329.875</v>
+        <v>43448.875</v>
       </c>
       <c r="D23" t="n">
-        <v>10.12773570025972</v>
+        <v>27.74194207393253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43329.91666666666</v>
+        <v>43448.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>7.077086166843429</v>
+        <v>28.30209924336812</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43329.95833333334</v>
+        <v>43448.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7.263588758406001</v>
+        <v>23.83222963260766</v>
       </c>
     </row>
   </sheetData>
@@ -717,240 +717,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43329</v>
+        <v>43448</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43329.04166666666</v>
+        <v>43448.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43329.08333333334</v>
+        <v>43448.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43329.125</v>
+        <v>43448.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43329.16666666666</v>
+        <v>43448.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43329.20833333334</v>
+        <v>43448.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43329.25</v>
+        <v>43448.25</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43329.29166666666</v>
+        <v>43448.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43329.33333333334</v>
+        <v>43448.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>342</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43329.375</v>
+        <v>43448.375</v>
       </c>
       <c r="D11" t="n">
-        <v>225</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43329.41666666666</v>
+        <v>43448.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>201</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43329.45833333334</v>
+        <v>43448.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>144</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43329.5</v>
+        <v>43448.5</v>
       </c>
       <c r="D14" t="n">
-        <v>114</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43329.54166666666</v>
+        <v>43448.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>121</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43329.58333333334</v>
+        <v>43448.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43329.625</v>
+        <v>43448.625</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43329.66666666666</v>
+        <v>43448.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43329.70833333334</v>
+        <v>43448.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43329.75</v>
+        <v>43448.75</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43329.79166666666</v>
+        <v>43448.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43329.83333333334</v>
+        <v>43448.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43329.875</v>
+        <v>43448.875</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43329.91666666666</v>
+        <v>43448.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43329.95833333334</v>
+        <v>43448.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data11.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data11.xlsx
@@ -422,244 +422,244 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43448</v>
+        <v>43376</v>
       </c>
       <c r="D2" t="n">
-        <v>24.42937899174747</v>
+        <v>-2.058748324401876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43448.04166666666</v>
+        <v>43376.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>11.76286645327177</v>
+        <v>-4.406798474847122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43448.08333333334</v>
+        <v>43376.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>4.406415327010961</v>
+        <v>0.09010451349820414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43448.125</v>
+        <v>43376.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5427944269420948</v>
+        <v>4.214858068986544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43448.16666666666</v>
+        <v>43376.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.868583637637613</v>
+        <v>7.6928413717024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43448.20833333334</v>
+        <v>43376.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04383825005237441</v>
+        <v>9.680201257730573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43448.25</v>
+        <v>43376.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.393749558443673</v>
+        <v>12.73098676100646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43448.29166666666</v>
+        <v>43376.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>7.367660490903305</v>
+        <v>37.10306701767345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43448.33333333334</v>
+        <v>43376.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>40.5382749022646</v>
+        <v>423.2678945905208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43448.375</v>
+        <v>43376.375</v>
       </c>
       <c r="D11" t="n">
-        <v>242.3010296369048</v>
+        <v>339.3081199637762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43448.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>368.5238949735713</v>
+        <v>331.1899718881805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43448.45833333334</v>
+        <v>43376.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>331.9526922111565</v>
+        <v>208.3726450204759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43448.5</v>
+        <v>43376.5</v>
       </c>
       <c r="D14" t="n">
-        <v>267.7299035631352</v>
+        <v>203.4318951698993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43448.54166666666</v>
+        <v>43376.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>247.8801454978044</v>
+        <v>155.27164212918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43448.58333333334</v>
+        <v>43376.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>200.2313042806387</v>
+        <v>114.2661796593368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43448.625</v>
+        <v>43376.625</v>
       </c>
       <c r="D17" t="n">
-        <v>155.3203725769736</v>
+        <v>80.54009110034723</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43448.66666666666</v>
+        <v>43376.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>112.0551957430059</v>
+        <v>56.01954992352927</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43448.70833333334</v>
+        <v>43376.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>79.9188083161004</v>
+        <v>38.10632830410569</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43448.75</v>
+        <v>43376.75</v>
       </c>
       <c r="D20" t="n">
-        <v>58.14585395829054</v>
+        <v>25.25555475234366</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43448.79166666666</v>
+        <v>43376.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>43.03740138954732</v>
+        <v>16.37949727613201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43448.83333333334</v>
+        <v>43376.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>32.70689488550437</v>
+        <v>10.56101948112936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43448.875</v>
+        <v>43376.875</v>
       </c>
       <c r="D23" t="n">
-        <v>27.74194207393253</v>
+        <v>6.996286576817411</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43448.91666666666</v>
+        <v>43376.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>28.30209924336812</v>
+        <v>5.000055076513178</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43448.95833333334</v>
+        <v>43376.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>23.83222963260766</v>
+        <v>0.05868421293715187</v>
       </c>
     </row>
   </sheetData>
@@ -713,11 +713,11 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43448</v>
+        <v>43376</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -727,230 +727,230 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43448.04166666666</v>
+        <v>43376.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43448.08333333334</v>
+        <v>43376.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43448.125</v>
+        <v>43376.125</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43448.16666666666</v>
+        <v>43376.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43448.20833333334</v>
+        <v>43376.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43448.25</v>
+        <v>43376.25</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43448.29166666666</v>
+        <v>43376.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43448.33333333334</v>
+        <v>43376.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>400</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43448.375</v>
+        <v>43376.375</v>
       </c>
       <c r="D11" t="n">
-        <v>347</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43448.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>373</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43448.45833333334</v>
+        <v>43376.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43448.5</v>
+        <v>43376.5</v>
       </c>
       <c r="D14" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43448.54166666666</v>
+        <v>43376.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43448.58333333334</v>
+        <v>43376.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43448.625</v>
+        <v>43376.625</v>
       </c>
       <c r="D17" t="n">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43448.66666666666</v>
+        <v>43376.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43448.70833333334</v>
+        <v>43376.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43448.75</v>
+        <v>43376.75</v>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43448.79166666666</v>
+        <v>43376.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43448.83333333334</v>
+        <v>43376.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43448.875</v>
+        <v>43376.875</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43448.91666666666</v>
+        <v>43376.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43448.95833333334</v>
+        <v>43376.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data11.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data11.xlsx
@@ -417,249 +417,247 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43376</v>
+        <v>43287</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.058748324401876</v>
+        <v>6.921980312442315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43376.04166666666</v>
+        <v>43287.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.406798474847122</v>
+        <v>5.591468643761345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43376.08333333334</v>
+        <v>43287.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09010451349820414</v>
+        <v>3.990850806421534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43376.125</v>
+        <v>43287.125</v>
       </c>
       <c r="D5" t="n">
-        <v>4.214858068986544</v>
+        <v>3.61101241623858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43376.16666666666</v>
+        <v>43287.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>7.6928413717024</v>
+        <v>3.578320086171033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43376.20833333334</v>
+        <v>43287.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>9.680201257730573</v>
+        <v>2.482609584140292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43376.25</v>
+        <v>43287.25</v>
       </c>
       <c r="D8" t="n">
-        <v>12.73098676100646</v>
+        <v>9.930505983366146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43376.29166666666</v>
+        <v>43287.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>37.10306701767345</v>
+        <v>45.86273587725069</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43376.33333333334</v>
+        <v>43287.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>423.2678945905208</v>
+        <v>464.3530456523092</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43376.375</v>
+        <v>43287.375</v>
       </c>
       <c r="D11" t="n">
-        <v>339.3081199637762</v>
+        <v>411.093490618368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43376.41666666666</v>
+        <v>43287.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>331.1899718881805</v>
+        <v>414.7655501353076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43376.45833333334</v>
+        <v>43287.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>208.3726450204759</v>
+        <v>231.3812413574749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43376.5</v>
+        <v>43287.5</v>
       </c>
       <c r="D14" t="n">
-        <v>203.4318951698993</v>
+        <v>256.6103043714005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43376.54166666666</v>
+        <v>43287.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>155.27164212918</v>
+        <v>182.8362528411591</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43376.58333333334</v>
+        <v>43287.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>114.2661796593368</v>
+        <v>158.492482686947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43376.625</v>
+        <v>43287.625</v>
       </c>
       <c r="D17" t="n">
-        <v>80.54009110034723</v>
+        <v>110.1063539556182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43376.66666666666</v>
+        <v>43287.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>56.01954992352927</v>
+        <v>88.6859961700945</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43376.70833333334</v>
+        <v>43287.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>38.10632830410569</v>
+        <v>61.00382294362238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43376.75</v>
+        <v>43287.75</v>
       </c>
       <c r="D20" t="n">
-        <v>25.25555475234366</v>
+        <v>42.17776568922584</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43376.79166666666</v>
+        <v>43287.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>16.37949727613201</v>
+        <v>27.99704762871782</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43376.83333333334</v>
+        <v>43287.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>10.56101948112936</v>
+        <v>18.61450158794865</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43376.875</v>
+        <v>43287.875</v>
       </c>
       <c r="D23" t="n">
-        <v>6.996286576817411</v>
+        <v>12.98290418441698</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43376.91666666666</v>
+        <v>43287.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5.000055076513178</v>
+        <v>9.845322698846587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43376.95833333334</v>
+        <v>43287.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05868421293715187</v>
+        <v>5.15594980351004</v>
       </c>
     </row>
   </sheetData>
@@ -708,36 +706,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43376</v>
+        <v>43287</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43376.04166666666</v>
+        <v>43287.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43376.08333333334</v>
+        <v>43287.08333333334</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -747,210 +743,210 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43376.125</v>
+        <v>43287.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43376.16666666666</v>
+        <v>43287.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43376.20833333334</v>
+        <v>43287.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43376.25</v>
+        <v>43287.25</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43376.29166666666</v>
+        <v>43287.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43376.33333333334</v>
+        <v>43287.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>531</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43376.375</v>
+        <v>43287.375</v>
       </c>
       <c r="D11" t="n">
-        <v>420</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43376.41666666666</v>
+        <v>43287.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>481</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43376.45833333334</v>
+        <v>43287.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>273</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43376.5</v>
+        <v>43287.5</v>
       </c>
       <c r="D14" t="n">
-        <v>285</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43376.54166666666</v>
+        <v>43287.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>187</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43376.58333333334</v>
+        <v>43287.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43376.625</v>
+        <v>43287.625</v>
       </c>
       <c r="D17" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43376.66666666666</v>
+        <v>43287.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43376.70833333334</v>
+        <v>43287.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43376.75</v>
+        <v>43287.75</v>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43376.79166666666</v>
+        <v>43287.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43376.83333333334</v>
+        <v>43287.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43376.875</v>
+        <v>43287.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43376.91666666666</v>
+        <v>43287.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43376.95833333334</v>
+        <v>43287.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
